--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_6_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_6_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>431588.7481985018</v>
+        <v>428620.0192745837</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7778725.998692573</v>
+        <v>7757679.400320122</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12395407.83918585</v>
+        <v>12396151.41672488</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>79.97861261893982</v>
       </c>
       <c r="G2" t="n">
-        <v>158.9322597098727</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>160.9608410339006</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>223.82438355203</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>371.8484236793419</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>285.0120783583006</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>80.88877949312983</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>70.03418953493001</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,10 +1142,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>353.072778020054</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>114.3875550887377</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1190,16 +1190,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>190.2713935802968</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>196.7218456862865</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>110.0145530728052</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>251.4178899434597</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206839</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>74.75769145492382</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>69.55800965594615</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>83.47425054667258</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2059,13 +2059,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>147.0633545968164</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>173.626889274476</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>113.5103646250812</v>
       </c>
     </row>
     <row r="23">
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2530,7 +2530,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>270.0697021486465</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>113.5103646250817</v>
       </c>
     </row>
     <row r="26">
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2767,7 +2767,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>270.0697021486465</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>25.53923626892152</v>
       </c>
     </row>
     <row r="29">
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,22 +2995,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>192.8335951560902</v>
+        <v>181.448709609577</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3190,22 +3190,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>33.65999533764878</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,10 +3235,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3250,10 +3250,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>202.4425172951292</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.6240527793846</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.1631028869116</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.573252736587</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.8205811881658</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.7662568576155</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.7334871286616</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H35" t="n">
-        <v>283.4533031204484</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.50280171672367</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0872679533782</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U35" t="n">
-        <v>250.7991071035504</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V35" t="n">
-        <v>327.6424695860389</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.131179833317</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.6213117943731</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.1281497719576</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3360,7 +3360,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H36" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3421,19 +3421,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.7221912978414</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>26.01367143887848</v>
+        <v>102.1854574632517</v>
       </c>
       <c r="D37" t="n">
-        <v>148.5056841341164</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.3241737624732</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.3112591388353</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S37" t="n">
-        <v>181.228699474363</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T37" t="n">
-        <v>217.3722055786659</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U37" t="n">
-        <v>286.0756626643245</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V37" t="n">
-        <v>252.0278544397321</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.413209452495</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.5998665049412</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.4748644679989</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3515,10 +3515,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H38" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045445</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060082001</v>
       </c>
       <c r="T38" t="n">
         <v>199.1970568374742</v>
@@ -3563,7 +3563,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>347.7039243400708</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3597,7 +3597,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H39" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561465</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.4255876952162</v>
+        <v>117.4255876952164</v>
       </c>
       <c r="T39" t="n">
         <v>188.3907690366107</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>175.6708051668795</v>
+        <v>175.5610162827832</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>162.9758571994738</v>
       </c>
       <c r="D40" t="n">
-        <v>144.4542980031546</v>
+        <v>66.6740993515651</v>
       </c>
       <c r="E40" t="n">
-        <v>142.2727876315114</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>141.1500841237772</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>161.2710889780129</v>
       </c>
       <c r="H40" t="n">
-        <v>136.2928147768961</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>44.2925089100557</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>63.01957657602578</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>177.1773133434012</v>
+        <v>177.067524459305</v>
       </c>
       <c r="T40" t="n">
-        <v>213.320819447704</v>
+        <v>213.2110305636078</v>
       </c>
       <c r="U40" t="n">
-        <v>282.0242765333626</v>
+        <v>281.9144876492663</v>
       </c>
       <c r="V40" t="n">
-        <v>247.9764683087702</v>
+        <v>247.8666794246739</v>
       </c>
       <c r="W40" t="n">
-        <v>282.3618233215332</v>
+        <v>282.2520344374369</v>
       </c>
       <c r="X40" t="n">
-        <v>221.5484803739794</v>
+        <v>221.4386914898831</v>
       </c>
       <c r="Y40" t="n">
-        <v>214.423478337037</v>
+        <v>214.3136894529407</v>
       </c>
     </row>
     <row r="41">
@@ -3740,10 +3740,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3752,10 +3752,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045445</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060082001</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3831,10 +3831,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561465</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,13 +3867,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952164</v>
       </c>
       <c r="T42" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U42" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898975</v>
+        <v>154.7370575672664</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.1518984839569</v>
       </c>
       <c r="D43" t="n">
-        <v>124.330825526174</v>
+        <v>123.5205504035414</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>121.3390400318983</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>120.3261254082603</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>140.447130262496</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>115.3590671772831</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652578</v>
+        <v>56.70965412973878</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808193</v>
+        <v>42.085828976413</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096048</v>
+        <v>156.2435657437882</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>192.3870718480909</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.0905289337495</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317882</v>
+        <v>227.0427207091571</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>261.4280757219201</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>200.6147327743662</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.300005860055</v>
+        <v>193.4897307374239</v>
       </c>
     </row>
     <row r="44">
@@ -3989,10 +3989,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045445</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060082001</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,10 +4068,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561465</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952164</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898975</v>
+        <v>154.7370575672664</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.1518984839569</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>123.5205504035414</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>121.3390400318983</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308915</v>
+        <v>120.3261254082603</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>140.447130262496</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>115.3590671772831</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652577</v>
+        <v>56.70965412973834</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808192</v>
+        <v>42.085828976413</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096048</v>
+        <v>156.2435657437882</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>192.3870718480909</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972044</v>
+        <v>261.0905289337495</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317882</v>
+        <v>227.0427207091571</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>261.4280757219201</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>200.6147327743662</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.300005860055</v>
+        <v>193.4897307374239</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1491.915471247702</v>
+        <v>1238.153685885794</v>
       </c>
       <c r="C2" t="n">
-        <v>1491.915471247702</v>
+        <v>1238.153685885794</v>
       </c>
       <c r="D2" t="n">
-        <v>1491.915471247702</v>
+        <v>879.8879872790433</v>
       </c>
       <c r="E2" t="n">
-        <v>1106.127218649458</v>
+        <v>879.8879872790433</v>
       </c>
       <c r="F2" t="n">
-        <v>695.1413138598505</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4361,19 +4361,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X2" t="n">
-        <v>2268.654643287636</v>
+        <v>2014.892857925727</v>
       </c>
       <c r="Y2" t="n">
-        <v>1878.515311311824</v>
+        <v>1624.753525949915</v>
       </c>
     </row>
     <row r="3">
@@ -4401,31 +4401,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>559.1928012785273</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>409.0761618661916</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>409.0761618661916</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>262.1862143682812</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4516,22 +4516,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>990.5839652830421</v>
+        <v>1194.683768698139</v>
       </c>
       <c r="C5" t="n">
-        <v>990.5839652830421</v>
+        <v>1194.683768698139</v>
       </c>
       <c r="D5" t="n">
-        <v>632.3182666762915</v>
+        <v>836.4180700913887</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>836.4180700913887</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4595,22 +4595,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2092.422847177208</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W5" t="n">
-        <v>1739.654191907093</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X5" t="n">
-        <v>1366.188433646014</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y5" t="n">
-        <v>1366.188433646014</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>181.3053441250784</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>181.3053441250784</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>181.3053441250784</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>181.3053441250784</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>181.3053441250784</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>181.3053441250784</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>181.3053441250784</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>409.2948950230958</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>181.3053441250784</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>181.3053441250784</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1309.206655608311</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C8" t="n">
-        <v>1309.206655608311</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D8" t="n">
-        <v>1309.206655608311</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>1309.206655608311</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4799,16 +4799,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2526.577416610597</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304456</v>
+        <v>2307.942749582659</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942547</v>
+        <v>2054.180964220751</v>
       </c>
       <c r="V8" t="n">
-        <v>2048.575150942547</v>
+        <v>1723.11807687718</v>
       </c>
       <c r="W8" t="n">
-        <v>1695.806495672433</v>
+        <v>1723.11807687718</v>
       </c>
       <c r="X8" t="n">
-        <v>1695.806495672433</v>
+        <v>1349.6523186161</v>
       </c>
       <c r="Y8" t="n">
-        <v>1695.806495672433</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005476</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5039,25 +5039,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>1070.832524924162</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L11" t="n">
-        <v>1521.86673817257</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M11" t="n">
-        <v>2055.398642844495</v>
+        <v>2528.189928969822</v>
       </c>
       <c r="N11" t="n">
-        <v>2602.177459903277</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q11" t="n">
         <v>4653.975400188666</v>
@@ -5066,25 +5066,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5160,10 +5160,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>895.1493900894823</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="C13" t="n">
-        <v>895.1493900894823</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D13" t="n">
-        <v>745.0327506771465</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>597.1196570947534</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>450.229709596843</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5203,7 +5203,7 @@
         <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M13" t="n">
         <v>1005.387693892251</v>
@@ -5218,31 +5218,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1667.240599230347</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V13" t="n">
-        <v>1412.55611102446</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W13" t="n">
-        <v>1123.1389409875</v>
+        <v>655.3156895889872</v>
       </c>
       <c r="X13" t="n">
-        <v>895.1493900894823</v>
+        <v>427.3261386909699</v>
       </c>
       <c r="Y13" t="n">
-        <v>895.1493900894823</v>
+        <v>427.3261386909699</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E14" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5276,25 +5276,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427196</v>
       </c>
       <c r="L14" t="n">
-        <v>1971.087962216427</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M14" t="n">
-        <v>2584.171204687568</v>
+        <v>1923.729615463053</v>
       </c>
       <c r="N14" t="n">
-        <v>3130.950021746351</v>
+        <v>2903.4818876897</v>
       </c>
       <c r="O14" t="n">
-        <v>4010.914672075805</v>
+        <v>3783.446538019155</v>
       </c>
       <c r="P14" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
         <v>4653.975400188666</v>
@@ -5303,25 +5303,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="15">
@@ -5331,43 +5331,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K15" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
         <v>2125.96131142685</v>
@@ -5376,7 +5376,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5385,7 +5385,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U15" t="n">
         <v>2043.809373447819</v>
@@ -5394,7 +5394,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X15" t="n">
         <v>1346.568408282342</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>412.4103109586944</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>243.4741280307875</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>243.4741280307875</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
         <v>95.56103444839442</v>
@@ -5434,52 +5434,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K16" t="n">
         <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598119</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518533</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952192</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104707</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104707</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.657581931533</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1694.396966117446</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1405.294099243089</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>1150.609611037203</v>
+        <v>909.2731541783407</v>
       </c>
       <c r="W16" t="n">
-        <v>861.1924410002418</v>
+        <v>619.8559841413802</v>
       </c>
       <c r="X16" t="n">
-        <v>633.2028901022245</v>
+        <v>391.8664332433627</v>
       </c>
       <c r="Y16" t="n">
-        <v>412.4103109586944</v>
+        <v>171.0738540998326</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
@@ -5504,7 +5504,7 @@
         <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5516,22 +5516,22 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>2730.494725501681</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>3610.459375831136</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4323.814463278081</v>
       </c>
       <c r="Q17" t="n">
         <v>4653.975400188666</v>
@@ -5546,19 +5546,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>414.6138567886371</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>245.6776738607302</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
         <v>95.56103444839442</v>
@@ -5671,52 +5671,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953319</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442083</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927045</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892254</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598118</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518532</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952191</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104706</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862234</v>
       </c>
       <c r="S19" t="n">
-        <v>1872.026041310085</v>
+        <v>1674.82712468906</v>
       </c>
       <c r="T19" t="n">
-        <v>1650.259425879611</v>
+        <v>1453.060509258586</v>
       </c>
       <c r="U19" t="n">
-        <v>1361.156559005254</v>
+        <v>1163.95764238423</v>
       </c>
       <c r="V19" t="n">
-        <v>1106.472070799367</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W19" t="n">
-        <v>817.0549007624069</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X19" t="n">
-        <v>817.0549007624069</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>596.2623216188767</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5729,67 +5729,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.44016540742</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972665</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.32865758045</v>
+        <v>2536.15366264131</v>
       </c>
       <c r="N20" t="n">
-        <v>3196.009277420601</v>
+        <v>3082.932479700092</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750057</v>
+        <v>3962.897130029547</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107235</v>
+        <v>4357.671496386725</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862917</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161929</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390115</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193587</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320238</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5844,37 +5844,37 @@
         <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5914,13 +5914,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
         <v>1646.12566951853</v>
@@ -5932,25 +5932,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V22" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W22" t="n">
-        <v>725.9916293201816</v>
+        <v>619.85598414138</v>
       </c>
       <c r="X22" t="n">
-        <v>498.0020784221642</v>
+        <v>391.8664332433626</v>
       </c>
       <c r="Y22" t="n">
         <v>277.2094992786341</v>
@@ -5987,28 +5987,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1236.699401366028</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2215.249704195857</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>2762.028521254639</v>
+        <v>3008.107474639232</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>3511.079945518569</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4224.435032965514</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4682.913235474502</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
@@ -6042,64 +6042,64 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6151,10 +6151,10 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N25" t="n">
         <v>1346.796070598116</v>
@@ -6169,25 +6169,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.408799357142</v>
+        <v>909.273154178341</v>
       </c>
       <c r="W25" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413804</v>
       </c>
       <c r="X25" t="n">
-        <v>498.0020784221642</v>
+        <v>391.8664332433631</v>
       </c>
       <c r="Y25" t="n">
         <v>277.2094992786341</v>
@@ -6215,7 +6215,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6233,19 +6233,19 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>2996.062531649192</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
@@ -6306,7 +6306,7 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
         <v>794.2006632320243</v>
@@ -6321,22 +6321,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839442</v>
+        <v>412.4103109586945</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E28" t="n">
         <v>95.56103444839442</v>
@@ -6403,31 +6403,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W28" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0020784221642</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786341</v>
+        <v>594.0587757889342</v>
       </c>
     </row>
     <row r="29">
@@ -6452,7 +6452,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6467,22 +6467,22 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>1622.425187676631</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6516,64 +6516,64 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K30" t="n">
         <v>427.502502919359</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>876.4469737784535</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>707.5107908505466</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>557.3941514382109</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
         <v>95.56103444839442</v>
@@ -6625,46 +6625,46 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N31" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1956.343466104704</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V31" t="n">
-        <v>1701.658977898817</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W31" t="n">
-        <v>1506.877568650241</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X31" t="n">
-        <v>1278.888017752223</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y31" t="n">
-        <v>1058.095438608693</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6689,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089256</v>
@@ -6698,28 +6698,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>351.3014367967906</v>
+        <v>451.8458144277731</v>
       </c>
       <c r="K32" t="n">
-        <v>685.1208104866373</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1549.639626139992</v>
+        <v>1971.087962216428</v>
       </c>
       <c r="M32" t="n">
-        <v>2528.189928969821</v>
+        <v>2504.619866888353</v>
       </c>
       <c r="N32" t="n">
-        <v>3507.942201196468</v>
+        <v>3362.809616117414</v>
       </c>
       <c r="O32" t="n">
-        <v>4010.914672075805</v>
+        <v>3865.782086996752</v>
       </c>
       <c r="P32" t="n">
-        <v>4405.689038432984</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6777,7 +6777,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390103</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
         <v>427.5025029193577</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>720.6978970137302</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>720.6978970137302</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>570.5812576013944</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>422.6681640190013</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>275.7782165210909</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>275.7782165210909</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>129.5610297389487</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953301</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442066</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927029</v>
       </c>
       <c r="M34" t="n">
         <v>1005.387693892252</v>
@@ -6874,7 +6874,7 @@
         <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.73316995219</v>
       </c>
       <c r="Q34" t="n">
         <v>1956.343466104704</v>
@@ -6883,25 +6883,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.657581931531</v>
       </c>
       <c r="T34" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501057</v>
       </c>
       <c r="U34" t="n">
-        <v>1667.240599230348</v>
+        <v>1253.7880996267</v>
       </c>
       <c r="V34" t="n">
-        <v>1412.556111024461</v>
+        <v>999.1036114208135</v>
       </c>
       <c r="W34" t="n">
-        <v>1123.1389409875</v>
+        <v>709.6864413838529</v>
       </c>
       <c r="X34" t="n">
-        <v>1123.1389409875</v>
+        <v>481.6968904858355</v>
       </c>
       <c r="Y34" t="n">
-        <v>902.3463618439699</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.564121551397</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.712502473708</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.557701729681</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.88034699416</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F35" t="n">
-        <v>794.0053400672755</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G35" t="n">
-        <v>380.1331308464046</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J35" t="n">
-        <v>373.3125385470849</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K35" t="n">
-        <v>842.9429223347668</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L35" t="n">
-        <v>1462.462702840542</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M35" t="n">
-        <v>2183.467264779579</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N35" t="n">
-        <v>2920.752242696685</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O35" t="n">
-        <v>3603.614279155824</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P35" t="n">
-        <v>4151.920227843172</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q35" t="n">
-        <v>4515.502413949179</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S35" t="n">
-        <v>4605.476787028166</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T35" t="n">
-        <v>4404.378536570208</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.046105152479</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.094115671631</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.43635826424</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.081497865884</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.053063752795</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>943.6291563257736</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C36" t="n">
-        <v>769.1761270446466</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D36" t="n">
-        <v>620.2417173833953</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E36" t="n">
-        <v>461.0042623779398</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F36" t="n">
-        <v>314.4697044048247</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G36" t="n">
-        <v>178.6894541647542</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J36" t="n">
-        <v>241.4646447998178</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="K36" t="n">
-        <v>571.9733873631767</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L36" t="n">
-        <v>571.9733873631767</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="M36" t="n">
-        <v>1163.991741615304</v>
+        <v>1016.375444967093</v>
       </c>
       <c r="N36" t="n">
-        <v>1786.087705014641</v>
+        <v>1638.471408366429</v>
       </c>
       <c r="O36" t="n">
-        <v>2332.964180014835</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.780669592131</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R36" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.168964849488</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T36" t="n">
-        <v>2244.875258751902</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U36" t="n">
-        <v>2016.845757276272</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V36" t="n">
-        <v>1781.69364904453</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W36" t="n">
-        <v>1527.456292316328</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X36" t="n">
-        <v>1319.604792110795</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y36" t="n">
-        <v>1111.844493345842</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>564.6800857492885</v>
+        <v>495.0957149476002</v>
       </c>
       <c r="C37" t="n">
-        <v>538.4036499524416</v>
+        <v>391.8780811463359</v>
       </c>
       <c r="D37" t="n">
-        <v>388.397908402829</v>
+        <v>241.7614417340002</v>
       </c>
       <c r="E37" t="n">
-        <v>240.5957126831591</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J37" t="n">
-        <v>172.9074769327808</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K37" t="n">
-        <v>432.6448948985994</v>
+        <v>432.4591980117244</v>
       </c>
       <c r="L37" t="n">
-        <v>820.5154039769886</v>
+        <v>820.2210160948587</v>
       </c>
       <c r="M37" t="n">
-        <v>1239.853687016703</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N37" t="n">
-        <v>1654.658243803665</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O37" t="n">
-        <v>2021.789391813949</v>
+        <v>2021.168930946054</v>
       </c>
       <c r="P37" t="n">
-        <v>2312.428517645409</v>
+        <v>2311.699365782259</v>
       </c>
       <c r="Q37" t="n">
-        <v>2430.250342194099</v>
+        <v>2429.412499335694</v>
       </c>
       <c r="R37" t="n">
-        <v>2430.250342194099</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S37" t="n">
-        <v>2247.191049795752</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T37" t="n">
-        <v>2027.623165372858</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U37" t="n">
-        <v>1738.657849550308</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V37" t="n">
-        <v>1484.084259207144</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W37" t="n">
-        <v>1194.777987032907</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X37" t="n">
-        <v>966.8993339976124</v>
+        <v>897.5367589213701</v>
       </c>
       <c r="Y37" t="n">
-        <v>746.2176527168051</v>
+        <v>676.7441797778399</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2318.229508727735</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C38" t="n">
-        <v>1949.266991787324</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D38" t="n">
-        <v>1591.001293180573</v>
+        <v>1591.032978284209</v>
       </c>
       <c r="E38" t="n">
-        <v>1205.213040582329</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F38" t="n">
-        <v>794.2271357927214</v>
+        <v>794.2588208963567</v>
       </c>
       <c r="G38" t="n">
-        <v>380.2440287091278</v>
+        <v>380.2757138127631</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160639</v>
       </c>
       <c r="J38" t="n">
-        <v>373.3125385470848</v>
+        <v>373.3442236507179</v>
       </c>
       <c r="K38" t="n">
-        <v>842.9429223347665</v>
+        <v>842.9746074383977</v>
       </c>
       <c r="L38" t="n">
-        <v>1462.462702840541</v>
+        <v>1462.49438794417</v>
       </c>
       <c r="M38" t="n">
-        <v>2232.714216052256</v>
+        <v>2183.498949883205</v>
       </c>
       <c r="N38" t="n">
-        <v>2969.999193969362</v>
+        <v>2920.783927800308</v>
       </c>
       <c r="O38" t="n">
-        <v>3652.861230428501</v>
+        <v>3654.445485610264</v>
       </c>
       <c r="P38" t="n">
-        <v>4201.167179115849</v>
+        <v>4202.75143429761</v>
       </c>
       <c r="Q38" t="n">
-        <v>4564.749365221855</v>
+        <v>4566.333620403615</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S38" t="n">
-        <v>4605.365889165442</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T38" t="n">
-        <v>4404.156740844761</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U38" t="n">
-        <v>4150.71341156431</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V38" t="n">
-        <v>3819.650524220739</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W38" t="n">
-        <v>3468.434439028749</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.968680767669</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.829348791857</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>943.6291563257736</v>
+        <v>943.6608414294088</v>
       </c>
       <c r="C39" t="n">
-        <v>769.1761270446466</v>
+        <v>769.2078121482818</v>
       </c>
       <c r="D39" t="n">
-        <v>620.2417173833953</v>
+        <v>620.2734024870306</v>
       </c>
       <c r="E39" t="n">
-        <v>461.0042623779398</v>
+        <v>461.035947481575</v>
       </c>
       <c r="F39" t="n">
-        <v>314.4697044048247</v>
+        <v>314.50138950846</v>
       </c>
       <c r="G39" t="n">
-        <v>178.6894541647543</v>
+        <v>178.7211392683895</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J39" t="n">
-        <v>241.4646447998178</v>
+        <v>241.4963299034522</v>
       </c>
       <c r="K39" t="n">
-        <v>571.9733873631765</v>
+        <v>562.2602880588695</v>
       </c>
       <c r="L39" t="n">
-        <v>571.9733873631765</v>
+        <v>562.2602880588695</v>
       </c>
       <c r="M39" t="n">
-        <v>1163.991741615304</v>
+        <v>1154.278642310995</v>
       </c>
       <c r="N39" t="n">
-        <v>1786.08770501464</v>
+        <v>1776.374605710329</v>
       </c>
       <c r="O39" t="n">
-        <v>2332.964180014834</v>
+        <v>2323.251080710521</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.780669592131</v>
+        <v>2323.251080710521</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="R39" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.168964849488</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T39" t="n">
-        <v>2244.875258751902</v>
+        <v>2244.906943855538</v>
       </c>
       <c r="U39" t="n">
-        <v>2016.845757276272</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V39" t="n">
-        <v>1781.69364904453</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W39" t="n">
-        <v>1527.456292316328</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X39" t="n">
-        <v>1319.604792110795</v>
+        <v>1319.636477214431</v>
       </c>
       <c r="Y39" t="n">
-        <v>1111.844493345842</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>565.8493997364753</v>
+        <v>631.2939336595149</v>
       </c>
       <c r="C40" t="n">
-        <v>565.8493997364753</v>
+        <v>466.6718556802484</v>
       </c>
       <c r="D40" t="n">
-        <v>419.9359674100565</v>
+        <v>399.3242805776576</v>
       </c>
       <c r="E40" t="n">
-        <v>276.2260809135803</v>
+        <v>399.3242805776576</v>
       </c>
       <c r="F40" t="n">
-        <v>276.2260809135803</v>
+        <v>256.7484380283877</v>
       </c>
       <c r="G40" t="n">
-        <v>276.2260809135803</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5565710379276</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J40" t="n">
-        <v>176.918349202433</v>
+        <v>177.0587253013229</v>
       </c>
       <c r="K40" t="n">
-        <v>440.6666394379038</v>
+        <v>440.9157065320482</v>
       </c>
       <c r="L40" t="n">
-        <v>832.5480207859453</v>
+        <v>832.9057788753439</v>
       </c>
       <c r="M40" t="n">
-        <v>1255.897176095312</v>
+        <v>1256.363625179965</v>
       </c>
       <c r="N40" t="n">
-        <v>1674.712605151926</v>
+        <v>1675.287745231833</v>
       </c>
       <c r="O40" t="n">
-        <v>2045.854625431863</v>
+        <v>2046.538456507024</v>
       </c>
       <c r="P40" t="n">
-        <v>2340.504623532974</v>
+        <v>2341.29714560339</v>
       </c>
       <c r="Q40" t="n">
-        <v>2462.337320351317</v>
+        <v>2463.238533416987</v>
       </c>
       <c r="R40" t="n">
-        <v>2398.681182395735</v>
+        <v>2463.238533416987</v>
       </c>
       <c r="S40" t="n">
-        <v>2219.714199220582</v>
+        <v>2284.382448104558</v>
       </c>
       <c r="T40" t="n">
-        <v>2004.238624020881</v>
+        <v>2069.01777076758</v>
       </c>
       <c r="U40" t="n">
-        <v>1719.365617421525</v>
+        <v>1784.255662030947</v>
       </c>
       <c r="V40" t="n">
-        <v>1468.884336301555</v>
+        <v>1533.885278773701</v>
       </c>
       <c r="W40" t="n">
-        <v>1183.670373350511</v>
+        <v>1248.78221368538</v>
       </c>
       <c r="X40" t="n">
-        <v>959.8840295384111</v>
+        <v>1025.106767736003</v>
       </c>
       <c r="Y40" t="n">
-        <v>743.2946574807982</v>
+        <v>808.6282935411139</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1591.032978284209</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>794.2588208963567</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>380.2757138127631</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>93.84834815160639</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>373.3442236507179</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>842.9746074383977</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1462.49438794417</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2183.498949883205</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2920.783927800308</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3654.445485610264</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4202.75143429761</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4566.333620403615</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.3991132778466</v>
+        <v>943.6608414294088</v>
       </c>
       <c r="C42" t="n">
-        <v>768.9460839967196</v>
+        <v>769.2078121482818</v>
       </c>
       <c r="D42" t="n">
-        <v>620.0116743354683</v>
+        <v>620.2734024870306</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>461.035947481575</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>314.50138950846</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>178.7211392683895</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>241.4963299034522</v>
       </c>
       <c r="K42" t="n">
-        <v>251.562654109227</v>
+        <v>241.4963299034522</v>
       </c>
       <c r="L42" t="n">
-        <v>746.8882603249857</v>
+        <v>241.4963299034522</v>
       </c>
       <c r="M42" t="n">
-        <v>1344.266747951538</v>
+        <v>833.5146841555776</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1321.464883050345</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>1868.341358050537</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2287.924876476611</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2518.486150461857</v>
       </c>
       <c r="R42" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="S42" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T42" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.906943855538</v>
       </c>
       <c r="U42" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V42" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W42" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.636477214431</v>
       </c>
       <c r="Y42" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319335</v>
+        <v>921.9831621891574</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656828</v>
+        <v>778.3953859427362</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>653.6271532118863</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942654</v>
+        <v>531.0624663109789</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>409.5209254945544</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>267.655137350619</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.1308270705351</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>197.6744444296846</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>482.1471447887716</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>894.7529362604289</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1338.826501693411</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1778.366340873641</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2170.232771277194</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2485.607179501922</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2628.16428644388</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2585.653348083867</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2427.831564504283</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2233.501188900151</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838287</v>
+        <v>1969.773381896363</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1740.437300371962</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518752</v>
+        <v>1476.368537016487</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582391</v>
+        <v>1273.727392799956</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400517</v>
+        <v>1078.283220337911</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1949.29867689096</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1591.03297828421</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1205.244725685965</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>794.2588208963575</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>380.2757138127639</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160777</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>373.3442236507186</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>842.9746074383984</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1462.494387944171</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2183.498949883205</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2971.58344915113</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3654.445485610265</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4202.751434297611</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4566.333620403616</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580353</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.950144347202</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.74099602652</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4152.29766674607</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3468.466124132385</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3095.000365871305</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.3991132778466</v>
+        <v>943.6608414294088</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9460839967196</v>
+        <v>769.2078121482818</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0116743354683</v>
+        <v>620.2734024870306</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>461.035947481575</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>314.50138950846</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>178.7211392683895</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>94.88738072612932</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>242.5353624779744</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>573.0441050413318</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>573.0441050413318</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1165.062459293457</v>
       </c>
       <c r="N45" t="n">
-        <v>1520.445529061503</v>
+        <v>1787.158422692791</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2334.034897692984</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2334.034897692984</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.906943855538</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.636477214431</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>921.9831621891569</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>778.3953859427357</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>653.6271532118858</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>531.0624663109785</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>409.5209254945539</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>267.6551373506185</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384019</v>
+        <v>151.1308270705347</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>197.6744444296846</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>482.1471447887716</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>894.7529362604289</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1338.826501693411</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656414</v>
+        <v>1778.366340873641</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2170.232771277194</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2485.607179501922</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2628.16428644388</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2585.653348083867</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2427.831564504283</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2233.501188900151</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1969.773381896363</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1740.437300371962</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1476.368537016487</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1273.727392799955</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1078.283220337911</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,28 +8687,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>288.0478149561032</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>192.9047586887102</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8924,28 +8924,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>80.35488666587514</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>17.45080131650963</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9164,10 +9164,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9176,13 +9176,13 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>82.70159106555778</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9398,19 +9398,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>189.7998007892612</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>114.2189875964762</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9635,13 +9635,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>219.3344627260163</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>36.48628322062227</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9881,22 +9881,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400255</v>
+        <v>304.73518059997</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10115,25 +10115,25 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>19.79750571619297</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,19 +10346,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>67.53663776704099</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>314.5564971416962</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10367,10 +10367,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>51.31264782909216</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>49.74439522492557</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10829,13 +10829,13 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>49.74439522492685</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>51.31264782911182</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>51.31264782911182</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>51.31264782911239</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>56.011255186223</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>35.10510839313133</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270135</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>149.9909396202231</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>106.2947747847693</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,13 +23947,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>105.0742887270116</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>16.14213605696594</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>105.0742887270136</v>
       </c>
     </row>
     <row r="23">
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>16.14213605696636</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>105.0742887270131</v>
       </c>
     </row>
     <row r="26">
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>16.14213605696636</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>193.0454170831733</v>
       </c>
     </row>
     <row r="29">
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24883,22 +24883,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>93.68940318050079</v>
+        <v>105.074288727014</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>62.69242507218928</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25123,10 @@
         <v>88.93215267004729</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,10 +25138,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>16.14213605696553</v>
       </c>
     </row>
     <row r="35">
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>141.1233607756534</v>
+        <v>65.06136363537613</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.432263993071</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H37" t="n">
-        <v>140.344200907858</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I37" t="n">
-        <v>81.69478786031307</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.0709627069876</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>163.0856460835701</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>77.67040976749318</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>142.1629987474151</v>
       </c>
       <c r="F40" t="n">
-        <v>141.2598730078735</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>161.3808778621091</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>136.1830258927999</v>
       </c>
       <c r="I40" t="n">
-        <v>33.35089281929554</v>
+        <v>77.53361284525518</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>62.90978769192984</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-1.196278644478477e-12</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1053023.146713819</v>
+        <v>1052960.207059281</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1056036.701251715</v>
+        <v>1056137.090778442</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1071013.964613643</v>
+        <v>1071626.637628722</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1071013.964613643</v>
+        <v>1071626.637628722</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>369468.7964389274</v>
       </c>
       <c r="C2" t="n">
-        <v>369468.7964389272</v>
+        <v>369468.7964389275</v>
       </c>
       <c r="D2" t="n">
         <v>369468.7964389274</v>
       </c>
       <c r="E2" t="n">
+        <v>357373.6081982849</v>
+      </c>
+      <c r="F2" t="n">
+        <v>357373.6081982849</v>
+      </c>
+      <c r="G2" t="n">
+        <v>357373.608198285</v>
+      </c>
+      <c r="H2" t="n">
+        <v>357373.6081982849</v>
+      </c>
+      <c r="I2" t="n">
+        <v>357373.6081982849</v>
+      </c>
+      <c r="J2" t="n">
+        <v>357373.6081982848</v>
+      </c>
+      <c r="K2" t="n">
+        <v>357373.6081982847</v>
+      </c>
+      <c r="L2" t="n">
         <v>357373.6081982851</v>
       </c>
-      <c r="F2" t="n">
-        <v>357373.6081982851</v>
-      </c>
-      <c r="G2" t="n">
-        <v>357373.6081982851</v>
-      </c>
-      <c r="H2" t="n">
-        <v>357373.6081982848</v>
-      </c>
-      <c r="I2" t="n">
-        <v>357373.608198285</v>
-      </c>
-      <c r="J2" t="n">
-        <v>357373.608198285</v>
-      </c>
-      <c r="K2" t="n">
-        <v>357373.608198285</v>
-      </c>
-      <c r="L2" t="n">
-        <v>357373.608198285</v>
-      </c>
       <c r="M2" t="n">
-        <v>363035.6082154937</v>
+        <v>363007.3397033519</v>
       </c>
       <c r="N2" t="n">
-        <v>364078.7617093808</v>
+        <v>364107.0302215221</v>
       </c>
       <c r="O2" t="n">
-        <v>369468.7964389272</v>
+        <v>369468.7964389271</v>
       </c>
       <c r="P2" t="n">
-        <v>369468.7964389273</v>
+        <v>369468.7964389271</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>3.25168002746068e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>312959.1464485549</v>
+        <v>312970.0160233568</v>
       </c>
       <c r="N3" t="n">
-        <v>3241.10890476931</v>
+        <v>3416.771119320425</v>
       </c>
       <c r="O3" t="n">
-        <v>22827.93839668427</v>
+        <v>16659.16697241348</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>192206.5963924297</v>
       </c>
       <c r="C4" t="n">
+        <v>192206.5963924297</v>
+      </c>
+      <c r="D4" t="n">
         <v>192206.5963924298</v>
-      </c>
-      <c r="D4" t="n">
-        <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709183</v>
+        <v>21619.6079970919</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709184</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="I4" t="n">
         <v>21619.60799709188</v>
       </c>
       <c r="J4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="K4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="L4" t="n">
-        <v>21619.60799709185</v>
+        <v>21619.60799709184</v>
       </c>
       <c r="M4" t="n">
-        <v>5156.962217675002</v>
+        <v>5069.915760662931</v>
       </c>
       <c r="N4" t="n">
-        <v>6490.070157725439</v>
+        <v>6475.275729222742</v>
       </c>
       <c r="O4" t="n">
-        <v>12448.50789975163</v>
+        <v>13327.39591959029</v>
       </c>
       <c r="P4" t="n">
-        <v>12448.50789975161</v>
+        <v>13327.39591959027</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371366</v>
@@ -26500,16 +26500,16 @@
         <v>96383.51825371367</v>
       </c>
       <c r="M5" t="n">
-        <v>100915.1886201729</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="N5" t="n">
-        <v>101255.7846008167</v>
+        <v>101289.0951212764</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>103039.7445065312</v>
       </c>
       <c r="P5" t="n">
-        <v>103164.1158539154</v>
+        <v>103039.7445065312</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-495564.7572314562</v>
       </c>
       <c r="C6" t="n">
-        <v>94403.12198308803</v>
+        <v>94403.12198308829</v>
       </c>
       <c r="D6" t="n">
-        <v>94403.12198308822</v>
+        <v>94403.12198308817</v>
       </c>
       <c r="E6" t="n">
-        <v>-488006.932045927</v>
+        <v>-488074.1275361532</v>
       </c>
       <c r="F6" t="n">
-        <v>239370.4819474795</v>
+        <v>239303.2864572534</v>
       </c>
       <c r="G6" t="n">
-        <v>239370.4819474796</v>
+        <v>239303.2864572537</v>
       </c>
       <c r="H6" t="n">
-        <v>239370.4819474792</v>
+        <v>239303.2864572535</v>
       </c>
       <c r="I6" t="n">
-        <v>239370.4819474795</v>
+        <v>239303.2864572535</v>
       </c>
       <c r="J6" t="n">
-        <v>62947.26275488654</v>
+        <v>62880.06726466057</v>
       </c>
       <c r="K6" t="n">
-        <v>239370.4819474794</v>
+        <v>239303.2864572533</v>
       </c>
       <c r="L6" t="n">
-        <v>239370.4819474791</v>
+        <v>239303.2864572534</v>
       </c>
       <c r="M6" t="n">
-        <v>-55995.68907090917</v>
+        <v>-55998.52851977071</v>
       </c>
       <c r="N6" t="n">
-        <v>253091.7980460694</v>
+        <v>252896.1006616058</v>
       </c>
       <c r="O6" t="n">
-        <v>231028.2342885759</v>
+        <v>236442.4890403921</v>
       </c>
       <c r="P6" t="n">
-        <v>253856.1726852603</v>
+        <v>253101.6560128056</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.161175015057776</v>
+        <v>4.270963899154063</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467091</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467091</v>
       </c>
     </row>
     <row r="3">
@@ -26741,19 +26741,19 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26771,13 +26771,13 @@
         <v>1358.041048716386</v>
       </c>
       <c r="N3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716382</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716382</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716382</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26820,16 +26820,16 @@
         <v>1194.51293060493</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
     </row>
   </sheetData>
@@ -26938,13 +26938,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.051386130961834</v>
+        <v>4.270963899154063</v>
       </c>
       <c r="O2" t="n">
-        <v>20.12347247698198</v>
+        <v>20.82395871551685</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26990,13 +26990,13 @@
         <v>4.547473508864641e-13</v>
       </c>
       <c r="M3" t="n">
-        <v>268.2643481230871</v>
+        <v>268.2643481230868</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-3.004452048579918e-12</v>
       </c>
       <c r="O3" t="n">
-        <v>9.934451625288148</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450927</v>
+        <v>498.8170791405324</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>326.8974331227716</v>
       </c>
       <c r="G2" t="n">
-        <v>254.8519103109223</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27537,28 +27537,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>6.348961225150362</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27588,13 +27588,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>28.31325977179802</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.88541798413871</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,13 +27625,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>121.8639673834109</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>54.07684229920839</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,25 +27816,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>216.2476847070477</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27862,10 +27862,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>53.80326772165739</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>60.02815772023379</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,31 +28053,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>96.01048066168096</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>89.80115265030452</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-2.371174660259043e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28518,7 +28518,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>3.069544618483633e-12</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-2.556569233283702e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28743,7 +28743,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1.940255363782247e-12</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.1097888840959422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30283,7 +30283,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>1.537044377342227</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4.161175015057776</v>
+        <v>4.270963899154063</v>
       </c>
       <c r="C40" t="n">
-        <v>4.161175015057776</v>
+        <v>4.270963899154063</v>
       </c>
       <c r="D40" t="n">
-        <v>4.161175015057776</v>
+        <v>4.270963899154063</v>
       </c>
       <c r="E40" t="n">
-        <v>4.161175015057776</v>
+        <v>4.270963899154063</v>
       </c>
       <c r="F40" t="n">
-        <v>4.161175015057776</v>
+        <v>4.270963899154063</v>
       </c>
       <c r="G40" t="n">
-        <v>4.161175015057776</v>
+        <v>4.270963899154063</v>
       </c>
       <c r="H40" t="n">
-        <v>4.161175015057776</v>
+        <v>4.270963899154063</v>
       </c>
       <c r="I40" t="n">
-        <v>4.161175015057776</v>
+        <v>4.270963899154063</v>
       </c>
       <c r="J40" t="n">
-        <v>4.161175015057776</v>
+        <v>4.270963899154063</v>
       </c>
       <c r="K40" t="n">
-        <v>4.161175015057776</v>
+        <v>4.270963899154063</v>
       </c>
       <c r="L40" t="n">
-        <v>4.161175015057776</v>
+        <v>4.270963899154063</v>
       </c>
       <c r="M40" t="n">
-        <v>4.161175015057776</v>
+        <v>4.270963899154063</v>
       </c>
       <c r="N40" t="n">
-        <v>4.161175015057776</v>
+        <v>4.270963899154063</v>
       </c>
       <c r="O40" t="n">
-        <v>4.161175015057776</v>
+        <v>4.270963899154063</v>
       </c>
       <c r="P40" t="n">
-        <v>4.161175015057776</v>
+        <v>4.270963899154063</v>
       </c>
       <c r="Q40" t="n">
-        <v>4.161175015057776</v>
+        <v>4.270963899154063</v>
       </c>
       <c r="R40" t="n">
-        <v>4.161175015057776</v>
+        <v>4.270963899154063</v>
       </c>
       <c r="S40" t="n">
-        <v>4.161175015057776</v>
+        <v>4.270963899154063</v>
       </c>
       <c r="T40" t="n">
-        <v>4.161175015057776</v>
+        <v>4.270963899154063</v>
       </c>
       <c r="U40" t="n">
-        <v>4.161175015057776</v>
+        <v>4.270963899154063</v>
       </c>
       <c r="V40" t="n">
-        <v>4.161175015057776</v>
+        <v>4.270963899154063</v>
       </c>
       <c r="W40" t="n">
-        <v>4.161175015057776</v>
+        <v>4.270963899154063</v>
       </c>
       <c r="X40" t="n">
-        <v>4.161175015057776</v>
+        <v>4.270963899154063</v>
       </c>
       <c r="Y40" t="n">
-        <v>4.161175015057776</v>
+        <v>4.270963899154063</v>
       </c>
     </row>
     <row r="41">
@@ -30460,10 +30460,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467091</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467091</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467091</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467091</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467091</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467091</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467091</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467091</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467091</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467091</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467091</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467091</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467091</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467091</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467091</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467091</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467091</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467091</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467091</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467091</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467091</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467091</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467091</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467091</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467091</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467091</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467091</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467091</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467091</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467091</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467091</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467091</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467091</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467091</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467091</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467091</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467091</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467091</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467091</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467091</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467091</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467091</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467091</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467091</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467091</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467091</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467091</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203976</v>
+        <v>25.09492261467091</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31996,40 +31996,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32148,43 +32148,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32470,40 +32470,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32622,43 +32622,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -33026,7 +33026,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138796</v>
@@ -33260,7 +33260,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33497,10 +33497,10 @@
         <v>80.70516131752261</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026424</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353143</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138798</v>
@@ -33646,46 +33646,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H35" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K35" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L35" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M35" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N35" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O35" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P35" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q35" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R35" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S35" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T35" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U35" t="n">
         <v>0.436756920190194</v>
@@ -33728,13 +33728,13 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H36" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>471.6886536848224</v>
@@ -33743,28 +33743,28 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N36" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O36" t="n">
-        <v>694.9967242426205</v>
+        <v>410.4711473919336</v>
       </c>
       <c r="P36" t="n">
-        <v>357.0213665833166</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T36" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U36" t="n">
         <v>0.1921756201013754</v>
@@ -33810,7 +33810,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I37" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J37" t="n">
         <v>173.1391022273333</v>
@@ -33819,16 +33819,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L37" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M37" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N37" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O37" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P37" t="n">
         <v>296.1865264282424</v>
@@ -33840,7 +33840,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S37" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T37" t="n">
         <v>10.46359496551969</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377409</v>
       </c>
       <c r="H38" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122265</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704053</v>
       </c>
       <c r="J38" t="n">
-        <v>463.3649706874064</v>
+        <v>463.364970687405</v>
       </c>
       <c r="K38" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830408</v>
       </c>
       <c r="L38" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364237</v>
       </c>
       <c r="M38" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293279</v>
       </c>
       <c r="N38" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229578</v>
       </c>
       <c r="O38" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086924</v>
       </c>
       <c r="P38" t="n">
-        <v>785.0773883687524</v>
+        <v>785.07738836875</v>
       </c>
       <c r="Q38" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148588</v>
       </c>
       <c r="R38" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987152</v>
       </c>
       <c r="S38" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854253</v>
       </c>
       <c r="T38" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665712</v>
       </c>
       <c r="U38" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901926</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540896</v>
       </c>
       <c r="H39" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088182</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>275.9770021735818</v>
+        <v>275.977002173581</v>
       </c>
       <c r="K39" t="n">
-        <v>471.6886536848224</v>
+        <v>461.8454371111441</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504278</v>
       </c>
       <c r="N39" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927615</v>
       </c>
       <c r="O39" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426184</v>
       </c>
       <c r="P39" t="n">
-        <v>357.0213665833172</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286941</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862144</v>
       </c>
       <c r="T39" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821089</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291835</v>
       </c>
       <c r="H40" t="n">
-        <v>21.77318271548567</v>
+        <v>21.77318271548561</v>
       </c>
       <c r="I40" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284904</v>
       </c>
       <c r="J40" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273327</v>
       </c>
       <c r="K40" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900877</v>
       </c>
       <c r="L40" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640607</v>
       </c>
       <c r="M40" t="n">
-        <v>383.8803574265022</v>
+        <v>383.880357426501</v>
       </c>
       <c r="N40" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416863</v>
       </c>
       <c r="O40" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465952</v>
       </c>
       <c r="P40" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282415</v>
       </c>
       <c r="Q40" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561736</v>
       </c>
       <c r="R40" t="n">
-        <v>110.1126397860859</v>
+        <v>110.1126397860856</v>
       </c>
       <c r="S40" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851315</v>
       </c>
       <c r="T40" t="n">
-        <v>10.46359496551969</v>
+        <v>10.46359496551966</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704639</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377409</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122265</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704053</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>463.364970687405</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>694.4639760830408</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364237</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293279</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229578</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086924</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>785.07738836875</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148588</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987152</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854253</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665712</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4367569201901926</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540896</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.21138103088182</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>275.977002173581</v>
       </c>
       <c r="K42" t="n">
-        <v>146.0225991093089</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>740.1323715504278</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>624.2207008659263</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>694.9967242426184</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>557.7961431982436</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>372.8719498286941</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436708</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.25758340862144</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821089</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013748</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291835</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548561</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284904</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273327</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900877</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640607</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>383.880357426501</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416863</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465952</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282415</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561736</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860856</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851315</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551966</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704639</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377409</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122265</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704053</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>463.364970687405</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>694.4639760830408</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364237</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293279</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229578</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086924</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>785.07738836875</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148588</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987152</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854253</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665712</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4367569201901926</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540896</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.21138103088182</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530528</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>275.977002173581</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>471.688653684821</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>740.1323715504278</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927615</v>
       </c>
       <c r="O45" t="n">
-        <v>522.1224556861836</v>
+        <v>694.9967242426184</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>361.9792054019641</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.25758340862144</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821089</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013748</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291835</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548561</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284904</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273327</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900877</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640607</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>383.880357426501</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416863</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465952</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282415</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561736</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860856</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851315</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551966</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704639</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>625.2391015115037</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>731.825874518937</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
         <v>125.3296184152072</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>619.2760024961019</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>416.2127875358816</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675431</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,10 +35884,10 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
@@ -35896,13 +35896,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>333.4958958692773</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306817</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687127</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554006</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427827</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230594</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>742.1016362021727</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509647</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037196</v>
+        <v>365.0132924001957</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,13 +36355,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
         <v>988.4346493230593</v>
@@ -36370,7 +36370,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>727.3874636142355</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908545</v>
@@ -36379,7 +36379,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>96.09948176284705</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36519,7 +36519,7 @@
         <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M25" t="n">
         <v>347.6333793934838</v>
@@ -36601,22 +36601,22 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282446</v>
+        <v>812.7881814881891</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340054</v>
@@ -36835,25 +36835,25 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>558.7186215464197</v>
       </c>
       <c r="N29" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K31" t="n">
         <v>206.0476595443196</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>258.3236387357537</v>
+        <v>359.8836161407865</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554007</v>
+        <v>661.3366991265655</v>
       </c>
       <c r="L32" t="n">
         <v>873.2513289427828</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230595</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248959</v>
+        <v>866.858332554608</v>
       </c>
       <c r="O32" t="n">
         <v>508.0530008882195</v>
@@ -37087,10 +37087,10 @@
         <v>398.7619862193721</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037197</v>
+        <v>463.1092954636244</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597567</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609554</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340056</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306631</v>
       </c>
       <c r="K34" t="n">
         <v>206.0476595443197</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K35" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L35" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M35" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N35" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O35" t="n">
-        <v>689.7596327870085</v>
+        <v>741.0722806161006</v>
       </c>
       <c r="P35" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q35" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R35" t="n">
-        <v>177.1017560095097</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>333.8472147104634</v>
@@ -37391,19 +37391,19 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N36" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O36" t="n">
-        <v>552.4004797981761</v>
+        <v>267.8749029474891</v>
       </c>
       <c r="P36" t="n">
-        <v>223.0469591689864</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>79.88971099475647</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K37" t="n">
-        <v>262.3610282483017</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L37" t="n">
-        <v>391.788393008474</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M37" t="n">
-        <v>423.5740232724388</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N37" t="n">
-        <v>418.994501805012</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O37" t="n">
-        <v>370.8395434447319</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P37" t="n">
-        <v>293.5748745772319</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q37" t="n">
-        <v>119.0119439885758</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607188</v>
       </c>
       <c r="K38" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380603</v>
       </c>
       <c r="L38" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664365</v>
       </c>
       <c r="M38" t="n">
-        <v>778.0318315269849</v>
+        <v>728.2874363020552</v>
       </c>
       <c r="N38" t="n">
-        <v>744.7323009263698</v>
+        <v>744.7323009263669</v>
       </c>
       <c r="O38" t="n">
-        <v>689.7596327870084</v>
+        <v>741.0722806161175</v>
       </c>
       <c r="P38" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134805</v>
       </c>
       <c r="Q38" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404093</v>
       </c>
       <c r="R38" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845831</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>149.1393755069151</v>
+        <v>149.1393755069143</v>
       </c>
       <c r="K39" t="n">
-        <v>333.8472147104634</v>
+        <v>324.0039981367851</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284094</v>
       </c>
       <c r="N39" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094282</v>
       </c>
       <c r="O39" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981739</v>
       </c>
       <c r="P39" t="n">
-        <v>223.0469591689869</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>232.8901757426726</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>83.94109712571827</v>
+        <v>84.05088600981402</v>
       </c>
       <c r="K40" t="n">
-        <v>266.4124143792635</v>
+        <v>266.5222032633589</v>
       </c>
       <c r="L40" t="n">
-        <v>395.8397791394358</v>
+        <v>395.949568023531</v>
       </c>
       <c r="M40" t="n">
-        <v>427.6254094034006</v>
+        <v>427.7351982874957</v>
       </c>
       <c r="N40" t="n">
-        <v>423.0458879359738</v>
+        <v>423.155676820069</v>
       </c>
       <c r="O40" t="n">
-        <v>374.8909295756937</v>
+        <v>375.0007184597889</v>
       </c>
       <c r="P40" t="n">
-        <v>297.6262607081937</v>
+        <v>297.7360495922891</v>
       </c>
       <c r="Q40" t="n">
-        <v>123.0633301195376</v>
+        <v>123.1731190036333</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607188</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380603</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>625.7775560664365</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>728.2874363020552</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>744.7323009263669</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>741.0722806161175</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134805</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404093</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845831</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>149.1393755069143</v>
       </c>
       <c r="K42" t="n">
-        <v>8.181160134949948</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284094</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>492.8789887825931</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>552.4004797981739</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>423.8217357839134</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>232.8901757426726</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>35.68303457970686</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>104.8748447253309</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>287.3461619788757</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>416.7735267390478</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>448.5591570030125</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>443.9796355355858</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>395.8246771753057</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>318.5600083078059</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>143.9970777191501</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607188</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380603</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>625.7775560664365</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>728.2874363020552</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>796.0449487554793</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870057</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134805</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404093</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845831</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,31 +38090,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.049527853052794</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>149.1393755069143</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>333.847214710462</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284094</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>628.3797610094282</v>
       </c>
       <c r="O45" t="n">
-        <v>379.5262112417391</v>
+        <v>552.4004797981739</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>221.9974313159426</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549931</v>
+        <v>104.8748447253309</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>287.3461619788757</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>416.7735267390478</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>448.5591570030125</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>443.9796355355858</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>395.8246771753057</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986647</v>
+        <v>318.5600083078059</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>143.9970777191501</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
